--- a/results/Karol/results_article/4o_mini/MINIMAL_DIAGNOSES.xlsx
+++ b/results/Karol/results_article/4o_mini/MINIMAL_DIAGNOSES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr codeName="Ten_skoroszyt" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakto\Desktop\Pulpit\FaultDiagnosis\FaultDiagnosis\results_article\4o_mini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\ania\LLM_and_diagnosisv2\results\Karol\results_article\4o_mini\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C69D972-B713-4C05-88A8-0BE7A444E61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DAC5CD-AA3E-4A21-A798-A765D26E055C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15840" tabRatio="802" xr2:uid="{D7477BF9-CFC4-44C8-A16A-B837FBE23178}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="802" xr2:uid="{D7477BF9-CFC4-44C8-A16A-B837FBE23178}"/>
   </bookViews>
   <sheets>
     <sheet name="MINIMAL DIAGNOSES" sheetId="4" r:id="rId1"/>
@@ -10579,9 +10579,6 @@
 A1</t>
   </si>
   <si>
-    <t>Example contant</t>
-  </si>
-  <si>
     <t>Observations</t>
   </si>
   <si>
@@ -11950,6 +11947,9 @@
 c = 1
 d = 1
 e = 2</t>
+  </si>
+  <si>
+    <t>Example content</t>
   </si>
 </sst>
 </file>
@@ -13109,18 +13109,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -13133,25 +13121,37 @@
     <xf numFmtId="0" fontId="18" fillId="34" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -13533,166 +13533,166 @@
   <sheetPr codeName="Arkusz4"/>
   <dimension ref="B1:BP103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="DA102" sqref="DA102"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="17.6640625" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
-    <col min="5" max="5" width="3.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="22" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="28" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="32" max="34" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="38" max="40" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="44" max="46" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="50" max="52" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="55" max="58" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="62" max="64" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="69" max="16384" width="17.7109375" style="1"/>
+    <col min="69" max="16384" width="17.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:68" ht="15" thickBot="1"/>
+    <row r="1" spans="2:68" ht="14.4" thickBot="1"/>
     <row r="2" spans="2:68" ht="30.75" customHeight="1" thickBot="1">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="50" t="s">
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="50" t="s">
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="50" t="s">
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="50" t="s">
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="50" t="s">
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="50" t="s">
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="51"/>
-      <c r="AO2" s="51"/>
-      <c r="AP2" s="51"/>
-      <c r="AQ2" s="52"/>
-      <c r="AR2" s="50" t="s">
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="63"/>
+      <c r="AQ2" s="64"/>
+      <c r="AR2" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51"/>
-      <c r="AV2" s="51"/>
-      <c r="AW2" s="52"/>
-      <c r="AX2" s="50" t="s">
+      <c r="AS2" s="63"/>
+      <c r="AT2" s="63"/>
+      <c r="AU2" s="63"/>
+      <c r="AV2" s="63"/>
+      <c r="AW2" s="64"/>
+      <c r="AX2" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51"/>
-      <c r="BB2" s="51"/>
-      <c r="BC2" s="52"/>
-      <c r="BD2" s="50" t="s">
+      <c r="AY2" s="63"/>
+      <c r="AZ2" s="63"/>
+      <c r="BA2" s="63"/>
+      <c r="BB2" s="63"/>
+      <c r="BC2" s="64"/>
+      <c r="BD2" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="BE2" s="51"/>
-      <c r="BF2" s="51"/>
-      <c r="BG2" s="51"/>
-      <c r="BH2" s="51"/>
-      <c r="BI2" s="52"/>
-      <c r="BJ2" s="50" t="s">
+      <c r="BE2" s="63"/>
+      <c r="BF2" s="63"/>
+      <c r="BG2" s="63"/>
+      <c r="BH2" s="63"/>
+      <c r="BI2" s="64"/>
+      <c r="BJ2" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="BK2" s="51"/>
-      <c r="BL2" s="51"/>
-      <c r="BM2" s="51"/>
-      <c r="BN2" s="51"/>
-      <c r="BO2" s="52"/>
+      <c r="BK2" s="63"/>
+      <c r="BL2" s="63"/>
+      <c r="BM2" s="63"/>
+      <c r="BN2" s="63"/>
+      <c r="BO2" s="64"/>
     </row>
-    <row r="3" spans="2:68" ht="165.75" thickBot="1">
+    <row r="3" spans="2:68" ht="152.4" thickBot="1">
       <c r="B3" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="50" t="s">
+        <v>678</v>
+      </c>
+      <c r="D3" s="50" t="s">
         <v>573</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="E3" s="25" t="s">
         <v>574</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>575</v>
       </c>
       <c r="F3" s="25" t="s">
         <v>88</v>
@@ -13884,17 +13884,17 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="2:68" ht="285">
+    <row r="4" spans="2:68" ht="96.6">
       <c r="B4" s="21">
         <v>1</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="60" t="s">
+        <v>575</v>
+      </c>
+      <c r="D4" s="51" t="s">
         <v>576</v>
       </c>
-      <c r="D4" s="55" t="s">
-        <v>577</v>
-      </c>
-      <c r="E4" s="59">
+      <c r="E4" s="54">
         <v>0</v>
       </c>
       <c r="F4" s="22">
@@ -14087,15 +14087,15 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="5" spans="2:68" ht="285">
+    <row r="5" spans="2:68" ht="96.6">
       <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="56" t="s">
-        <v>578</v>
-      </c>
-      <c r="E5" s="59">
+      <c r="C5" s="59"/>
+      <c r="D5" s="52" t="s">
+        <v>577</v>
+      </c>
+      <c r="E5" s="54">
         <v>2</v>
       </c>
       <c r="F5" s="4">
@@ -14290,15 +14290,15 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="6" spans="2:68" ht="285">
+    <row r="6" spans="2:68" ht="96.6">
       <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="56" t="s">
-        <v>579</v>
-      </c>
-      <c r="E6" s="59">
+      <c r="C6" s="59"/>
+      <c r="D6" s="52" t="s">
+        <v>578</v>
+      </c>
+      <c r="E6" s="54">
         <v>2</v>
       </c>
       <c r="F6" s="4">
@@ -14493,15 +14493,15 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="7" spans="2:68" ht="285">
+    <row r="7" spans="2:68" ht="96.6">
       <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="56" t="s">
-        <v>580</v>
-      </c>
-      <c r="E7" s="59">
+      <c r="C7" s="59"/>
+      <c r="D7" s="52" t="s">
+        <v>579</v>
+      </c>
+      <c r="E7" s="54">
         <v>2</v>
       </c>
       <c r="F7" s="4">
@@ -14696,15 +14696,15 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="8" spans="2:68" ht="285">
+    <row r="8" spans="2:68" ht="115.2">
       <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="56" t="s">
-        <v>581</v>
-      </c>
-      <c r="E8" s="59">
+      <c r="C8" s="57"/>
+      <c r="D8" s="52" t="s">
+        <v>580</v>
+      </c>
+      <c r="E8" s="54">
         <v>3</v>
       </c>
       <c r="F8" s="4">
@@ -14899,17 +14899,17 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="9" spans="2:68" ht="327.75">
+    <row r="9" spans="2:68" ht="110.4">
       <c r="B9" s="3">
         <v>6</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="56" t="s">
+        <v>581</v>
+      </c>
+      <c r="D9" s="52" t="s">
         <v>582</v>
       </c>
-      <c r="D9" s="56" t="s">
-        <v>583</v>
-      </c>
-      <c r="E9" s="59">
+      <c r="E9" s="54">
         <v>0</v>
       </c>
       <c r="F9" s="4">
@@ -15082,15 +15082,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:68" ht="327.75">
+    <row r="10" spans="2:68" ht="110.4">
       <c r="B10" s="3">
         <v>7</v>
       </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="56" t="s">
-        <v>584</v>
-      </c>
-      <c r="E10" s="59">
+      <c r="C10" s="59"/>
+      <c r="D10" s="52" t="s">
+        <v>583</v>
+      </c>
+      <c r="E10" s="54">
         <v>1</v>
       </c>
       <c r="F10" s="4">
@@ -15285,15 +15285,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:68" ht="327.75">
+    <row r="11" spans="2:68" ht="110.4">
       <c r="B11" s="3">
         <v>8</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="56" t="s">
-        <v>585</v>
-      </c>
-      <c r="E11" s="59">
+      <c r="C11" s="59"/>
+      <c r="D11" s="52" t="s">
+        <v>584</v>
+      </c>
+      <c r="E11" s="54">
         <v>1</v>
       </c>
       <c r="F11" s="4">
@@ -15488,15 +15488,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:68" ht="327.75">
+    <row r="12" spans="2:68" ht="172.8">
       <c r="B12" s="3">
         <v>9</v>
       </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="56" t="s">
-        <v>586</v>
-      </c>
-      <c r="E12" s="59">
+      <c r="C12" s="57"/>
+      <c r="D12" s="52" t="s">
+        <v>585</v>
+      </c>
+      <c r="E12" s="54">
         <v>2</v>
       </c>
       <c r="F12" s="4">
@@ -15691,17 +15691,17 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="13" spans="2:68" ht="327.75">
+    <row r="13" spans="2:68" ht="110.4">
       <c r="B13" s="3">
         <v>10</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="56" t="s">
+        <v>586</v>
+      </c>
+      <c r="D13" s="52" t="s">
         <v>587</v>
       </c>
-      <c r="D13" s="56" t="s">
-        <v>588</v>
-      </c>
-      <c r="E13" s="59">
+      <c r="E13" s="54">
         <v>0</v>
       </c>
       <c r="F13" s="4">
@@ -15874,15 +15874,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:68" ht="327.75">
+    <row r="14" spans="2:68" ht="110.4">
       <c r="B14" s="3">
         <v>11</v>
       </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="56" t="s">
-        <v>589</v>
-      </c>
-      <c r="E14" s="59">
+      <c r="C14" s="59"/>
+      <c r="D14" s="52" t="s">
+        <v>588</v>
+      </c>
+      <c r="E14" s="54">
         <v>1</v>
       </c>
       <c r="F14" s="4">
@@ -16077,15 +16077,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:68" ht="327.75">
+    <row r="15" spans="2:68" ht="110.4">
       <c r="B15" s="3">
         <v>12</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="56" t="s">
-        <v>590</v>
-      </c>
-      <c r="E15" s="59">
+      <c r="C15" s="59"/>
+      <c r="D15" s="52" t="s">
+        <v>589</v>
+      </c>
+      <c r="E15" s="54">
         <v>1</v>
       </c>
       <c r="F15" s="4">
@@ -16280,15 +16280,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:68" ht="327.75">
+    <row r="16" spans="2:68" ht="172.8">
       <c r="B16" s="3">
         <v>13</v>
       </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="56" t="s">
-        <v>591</v>
-      </c>
-      <c r="E16" s="59">
+      <c r="C16" s="57"/>
+      <c r="D16" s="52" t="s">
+        <v>590</v>
+      </c>
+      <c r="E16" s="54">
         <v>2</v>
       </c>
       <c r="F16" s="4">
@@ -16483,17 +16483,17 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="17" spans="2:68" ht="327.75">
+    <row r="17" spans="2:68" ht="110.4">
       <c r="B17" s="3">
         <v>14</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="56" t="s">
+        <v>591</v>
+      </c>
+      <c r="D17" s="52" t="s">
         <v>592</v>
       </c>
-      <c r="D17" s="56" t="s">
-        <v>593</v>
-      </c>
-      <c r="E17" s="59">
+      <c r="E17" s="54">
         <v>0</v>
       </c>
       <c r="F17" s="4">
@@ -16666,15 +16666,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:68" ht="327.75">
+    <row r="18" spans="2:68" ht="110.4">
       <c r="B18" s="3">
         <v>15</v>
       </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="56" t="s">
-        <v>594</v>
-      </c>
-      <c r="E18" s="59">
+      <c r="C18" s="59"/>
+      <c r="D18" s="52" t="s">
+        <v>593</v>
+      </c>
+      <c r="E18" s="54">
         <v>1</v>
       </c>
       <c r="F18" s="4">
@@ -16869,15 +16869,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:68" ht="327.75">
+    <row r="19" spans="2:68" ht="172.8">
       <c r="B19" s="3">
         <v>16</v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="56" t="s">
-        <v>585</v>
-      </c>
-      <c r="E19" s="59">
+      <c r="C19" s="59"/>
+      <c r="D19" s="52" t="s">
+        <v>584</v>
+      </c>
+      <c r="E19" s="54">
         <v>2</v>
       </c>
       <c r="F19" s="4">
@@ -17072,15 +17072,15 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="20" spans="2:68" ht="327.75">
+    <row r="20" spans="2:68" ht="110.4">
       <c r="B20" s="3">
         <v>17</v>
       </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="56" t="s">
-        <v>595</v>
-      </c>
-      <c r="E20" s="59">
+      <c r="C20" s="57"/>
+      <c r="D20" s="52" t="s">
+        <v>594</v>
+      </c>
+      <c r="E20" s="54">
         <v>1</v>
       </c>
       <c r="F20" s="4">
@@ -17275,17 +17275,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:68" ht="409.5">
+    <row r="21" spans="2:68" ht="151.80000000000001">
       <c r="B21" s="3">
         <v>18</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="56" t="s">
+        <v>595</v>
+      </c>
+      <c r="D21" s="52" t="s">
         <v>596</v>
       </c>
-      <c r="D21" s="56" t="s">
-        <v>597</v>
-      </c>
-      <c r="E21" s="59">
+      <c r="E21" s="54">
         <v>0</v>
       </c>
       <c r="F21" s="4">
@@ -17458,15 +17458,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:68" ht="409.5">
+    <row r="22" spans="2:68" ht="151.80000000000001">
       <c r="B22" s="3">
         <v>19</v>
       </c>
-      <c r="C22" s="60"/>
-      <c r="D22" s="56" t="s">
-        <v>598</v>
-      </c>
-      <c r="E22" s="59">
+      <c r="C22" s="59"/>
+      <c r="D22" s="52" t="s">
+        <v>597</v>
+      </c>
+      <c r="E22" s="54">
         <v>2</v>
       </c>
       <c r="F22" s="4">
@@ -17661,15 +17661,15 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="23" spans="2:68" ht="409.5">
+    <row r="23" spans="2:68" ht="151.80000000000001">
       <c r="B23" s="3">
         <v>20</v>
       </c>
-      <c r="C23" s="60"/>
-      <c r="D23" s="56" t="s">
-        <v>599</v>
-      </c>
-      <c r="E23" s="59">
+      <c r="C23" s="59"/>
+      <c r="D23" s="52" t="s">
+        <v>598</v>
+      </c>
+      <c r="E23" s="54">
         <v>2</v>
       </c>
       <c r="F23" s="4">
@@ -17864,15 +17864,15 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="24" spans="2:68" ht="409.5">
+    <row r="24" spans="2:68" ht="302.39999999999998">
       <c r="B24" s="3">
         <v>21</v>
       </c>
-      <c r="C24" s="61"/>
-      <c r="D24" s="56" t="s">
-        <v>600</v>
-      </c>
-      <c r="E24" s="59">
+      <c r="C24" s="57"/>
+      <c r="D24" s="52" t="s">
+        <v>599</v>
+      </c>
+      <c r="E24" s="54">
         <v>3</v>
       </c>
       <c r="F24" s="4">
@@ -18067,17 +18067,17 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="25" spans="2:68" ht="356.25">
+    <row r="25" spans="2:68" ht="124.2">
       <c r="B25" s="3">
         <v>22</v>
       </c>
-      <c r="C25" s="62" t="s">
+      <c r="C25" s="56" t="s">
+        <v>600</v>
+      </c>
+      <c r="D25" s="52" t="s">
         <v>601</v>
       </c>
-      <c r="D25" s="56" t="s">
-        <v>602</v>
-      </c>
-      <c r="E25" s="59">
+      <c r="E25" s="54">
         <v>0</v>
       </c>
       <c r="F25" s="4">
@@ -18250,15 +18250,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:68" ht="356.25">
+    <row r="26" spans="2:68" ht="124.2">
       <c r="B26" s="3">
         <v>23</v>
       </c>
-      <c r="C26" s="60"/>
-      <c r="D26" s="56" t="s">
-        <v>603</v>
-      </c>
-      <c r="E26" s="59">
+      <c r="C26" s="59"/>
+      <c r="D26" s="52" t="s">
+        <v>602</v>
+      </c>
+      <c r="E26" s="54">
         <v>2</v>
       </c>
       <c r="F26" s="4">
@@ -18453,15 +18453,15 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="27" spans="2:68" ht="356.25">
+    <row r="27" spans="2:68" ht="124.2">
       <c r="B27" s="3">
         <v>24</v>
       </c>
-      <c r="C27" s="60"/>
-      <c r="D27" s="56" t="s">
-        <v>604</v>
-      </c>
-      <c r="E27" s="59">
+      <c r="C27" s="59"/>
+      <c r="D27" s="52" t="s">
+        <v>603</v>
+      </c>
+      <c r="E27" s="54">
         <v>2</v>
       </c>
       <c r="F27" s="4">
@@ -18656,15 +18656,15 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="28" spans="2:68" ht="356.25">
+    <row r="28" spans="2:68" ht="124.2">
       <c r="B28" s="3">
         <v>25</v>
       </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="56" t="s">
-        <v>605</v>
-      </c>
-      <c r="E28" s="59">
+      <c r="C28" s="57"/>
+      <c r="D28" s="52" t="s">
+        <v>604</v>
+      </c>
+      <c r="E28" s="54">
         <v>2</v>
       </c>
       <c r="F28" s="4">
@@ -18859,17 +18859,17 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="29" spans="2:68" ht="384.75">
+    <row r="29" spans="2:68" ht="138">
       <c r="B29" s="3">
         <v>26</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="C29" s="56" t="s">
+        <v>605</v>
+      </c>
+      <c r="D29" s="52" t="s">
         <v>606</v>
       </c>
-      <c r="D29" s="56" t="s">
-        <v>607</v>
-      </c>
-      <c r="E29" s="59">
+      <c r="E29" s="54">
         <v>0</v>
       </c>
       <c r="F29" s="4">
@@ -19042,15 +19042,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:68" ht="384.75">
+    <row r="30" spans="2:68" ht="302.39999999999998">
       <c r="B30" s="3">
         <v>27</v>
       </c>
-      <c r="C30" s="60"/>
-      <c r="D30" s="56" t="s">
-        <v>608</v>
-      </c>
-      <c r="E30" s="59">
+      <c r="C30" s="59"/>
+      <c r="D30" s="52" t="s">
+        <v>607</v>
+      </c>
+      <c r="E30" s="54">
         <v>3</v>
       </c>
       <c r="F30" s="4">
@@ -19245,15 +19245,15 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="31" spans="2:68" ht="384.75">
+    <row r="31" spans="2:68" ht="138">
       <c r="B31" s="3">
         <v>28</v>
       </c>
-      <c r="C31" s="60"/>
-      <c r="D31" s="56" t="s">
-        <v>609</v>
-      </c>
-      <c r="E31" s="59">
+      <c r="C31" s="59"/>
+      <c r="D31" s="52" t="s">
+        <v>608</v>
+      </c>
+      <c r="E31" s="54">
         <v>4</v>
       </c>
       <c r="F31" s="4">
@@ -19448,15 +19448,15 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="32" spans="2:68" ht="384.75">
+    <row r="32" spans="2:68" ht="302.39999999999998">
       <c r="B32" s="3">
         <v>29</v>
       </c>
-      <c r="C32" s="60"/>
-      <c r="D32" s="56" t="s">
-        <v>610</v>
-      </c>
-      <c r="E32" s="59">
+      <c r="C32" s="59"/>
+      <c r="D32" s="52" t="s">
+        <v>609</v>
+      </c>
+      <c r="E32" s="54">
         <v>3</v>
       </c>
       <c r="F32" s="4">
@@ -19651,15 +19651,15 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="33" spans="2:68" ht="409.5">
+    <row r="33" spans="2:68" ht="409.6">
       <c r="B33" s="3">
         <v>30</v>
       </c>
-      <c r="C33" s="60"/>
-      <c r="D33" s="56" t="s">
-        <v>611</v>
-      </c>
-      <c r="E33" s="59">
+      <c r="C33" s="59"/>
+      <c r="D33" s="52" t="s">
+        <v>610</v>
+      </c>
+      <c r="E33" s="54">
         <v>5</v>
       </c>
       <c r="F33" s="4">
@@ -19854,15 +19854,15 @@
         <v>0.87222222222222212</v>
       </c>
     </row>
-    <row r="34" spans="2:68" ht="409.5">
+    <row r="34" spans="2:68" ht="409.6">
       <c r="B34" s="3">
         <v>31</v>
       </c>
-      <c r="C34" s="60"/>
-      <c r="D34" s="56" t="s">
-        <v>612</v>
-      </c>
-      <c r="E34" s="59">
+      <c r="C34" s="59"/>
+      <c r="D34" s="52" t="s">
+        <v>611</v>
+      </c>
+      <c r="E34" s="54">
         <v>5</v>
       </c>
       <c r="F34" s="4">
@@ -20057,15 +20057,15 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="35" spans="2:68" ht="384.75">
+    <row r="35" spans="2:68" ht="360">
       <c r="B35" s="3">
         <v>32</v>
       </c>
-      <c r="C35" s="60"/>
-      <c r="D35" s="56" t="s">
-        <v>613</v>
-      </c>
-      <c r="E35" s="59">
+      <c r="C35" s="59"/>
+      <c r="D35" s="52" t="s">
+        <v>612</v>
+      </c>
+      <c r="E35" s="54">
         <v>4</v>
       </c>
       <c r="F35" s="4">
@@ -20260,15 +20260,15 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="36" spans="2:68" ht="384.75">
+    <row r="36" spans="2:68" ht="138">
       <c r="B36" s="3">
         <v>33</v>
       </c>
-      <c r="C36" s="61"/>
-      <c r="D36" s="56" t="s">
-        <v>614</v>
-      </c>
-      <c r="E36" s="59">
+      <c r="C36" s="57"/>
+      <c r="D36" s="52" t="s">
+        <v>613</v>
+      </c>
+      <c r="E36" s="54">
         <v>3</v>
       </c>
       <c r="F36" s="4">
@@ -20463,17 +20463,17 @@
         <v>0.81944444444444442</v>
       </c>
     </row>
-    <row r="37" spans="2:68" ht="409.5">
+    <row r="37" spans="2:68" ht="234.6">
       <c r="B37" s="3">
         <v>34</v>
       </c>
-      <c r="C37" s="62" t="s">
+      <c r="C37" s="56" t="s">
+        <v>614</v>
+      </c>
+      <c r="D37" s="52" t="s">
         <v>615</v>
       </c>
-      <c r="D37" s="56" t="s">
-        <v>616</v>
-      </c>
-      <c r="E37" s="59">
+      <c r="E37" s="54">
         <v>0</v>
       </c>
       <c r="F37" s="4">
@@ -20646,15 +20646,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:68" ht="409.5">
+    <row r="38" spans="2:68" ht="409.6">
       <c r="B38" s="3">
         <v>35</v>
       </c>
-      <c r="C38" s="60"/>
-      <c r="D38" s="56" t="s">
-        <v>617</v>
-      </c>
-      <c r="E38" s="59">
+      <c r="C38" s="59"/>
+      <c r="D38" s="52" t="s">
+        <v>616</v>
+      </c>
+      <c r="E38" s="54">
         <v>5</v>
       </c>
       <c r="F38" s="4">
@@ -20849,15 +20849,15 @@
         <v>0.44642857142857117</v>
       </c>
     </row>
-    <row r="39" spans="2:68" ht="409.5">
+    <row r="39" spans="2:68" ht="409.6">
       <c r="B39" s="3">
         <v>36</v>
       </c>
-      <c r="C39" s="60"/>
-      <c r="D39" s="56" t="s">
-        <v>618</v>
-      </c>
-      <c r="E39" s="59">
+      <c r="C39" s="59"/>
+      <c r="D39" s="52" t="s">
+        <v>617</v>
+      </c>
+      <c r="E39" s="54">
         <v>3</v>
       </c>
       <c r="F39" s="4">
@@ -21052,15 +21052,15 @@
         <v>0.84782608695652173</v>
       </c>
     </row>
-    <row r="40" spans="2:68" ht="409.5">
+    <row r="40" spans="2:68" ht="409.6">
       <c r="B40" s="3">
         <v>37</v>
       </c>
-      <c r="C40" s="60"/>
-      <c r="D40" s="56" t="s">
-        <v>619</v>
-      </c>
-      <c r="E40" s="59">
+      <c r="C40" s="59"/>
+      <c r="D40" s="52" t="s">
+        <v>618</v>
+      </c>
+      <c r="E40" s="54">
         <v>6</v>
       </c>
       <c r="F40" s="4">
@@ -21255,15 +21255,15 @@
         <v>0.22196969696969671</v>
       </c>
     </row>
-    <row r="41" spans="2:68" ht="409.5">
+    <row r="41" spans="2:68" ht="409.6">
       <c r="B41" s="3">
         <v>38</v>
       </c>
-      <c r="C41" s="60"/>
-      <c r="D41" s="56" t="s">
-        <v>620</v>
-      </c>
-      <c r="E41" s="59">
+      <c r="C41" s="59"/>
+      <c r="D41" s="52" t="s">
+        <v>619</v>
+      </c>
+      <c r="E41" s="54">
         <v>3</v>
       </c>
       <c r="F41" s="4">
@@ -21458,15 +21458,15 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="42" spans="2:68" ht="409.5">
+    <row r="42" spans="2:68" ht="234.6">
       <c r="B42" s="3">
         <v>39</v>
       </c>
-      <c r="C42" s="60"/>
-      <c r="D42" s="56" t="s">
-        <v>621</v>
-      </c>
-      <c r="E42" s="59">
+      <c r="C42" s="59"/>
+      <c r="D42" s="52" t="s">
+        <v>620</v>
+      </c>
+      <c r="E42" s="54">
         <v>4</v>
       </c>
       <c r="F42" s="4">
@@ -21661,15 +21661,15 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="43" spans="2:68" ht="409.5">
+    <row r="43" spans="2:68" ht="409.6">
       <c r="B43" s="3">
         <v>40</v>
       </c>
-      <c r="C43" s="60"/>
-      <c r="D43" s="56" t="s">
-        <v>622</v>
-      </c>
-      <c r="E43" s="59">
+      <c r="C43" s="59"/>
+      <c r="D43" s="52" t="s">
+        <v>621</v>
+      </c>
+      <c r="E43" s="54">
         <v>5</v>
       </c>
       <c r="F43" s="4">
@@ -21864,15 +21864,15 @@
         <v>0.87244897959183665</v>
       </c>
     </row>
-    <row r="44" spans="2:68" ht="409.5">
+    <row r="44" spans="2:68" ht="409.6">
       <c r="B44" s="3">
         <v>41</v>
       </c>
-      <c r="C44" s="61"/>
-      <c r="D44" s="56" t="s">
-        <v>623</v>
-      </c>
-      <c r="E44" s="59">
+      <c r="C44" s="57"/>
+      <c r="D44" s="52" t="s">
+        <v>622</v>
+      </c>
+      <c r="E44" s="54">
         <v>4</v>
       </c>
       <c r="F44" s="4">
@@ -22067,17 +22067,17 @@
         <v>0.23655913978494614</v>
       </c>
     </row>
-    <row r="45" spans="2:68" ht="128.25">
+    <row r="45" spans="2:68" ht="41.4">
       <c r="B45" s="3">
         <v>42</v>
       </c>
-      <c r="C45" s="62" t="s">
+      <c r="C45" s="56" t="s">
+        <v>623</v>
+      </c>
+      <c r="D45" s="52" t="s">
         <v>624</v>
       </c>
-      <c r="D45" s="56" t="s">
-        <v>625</v>
-      </c>
-      <c r="E45" s="59">
+      <c r="E45" s="54">
         <v>0</v>
       </c>
       <c r="F45" s="4">
@@ -22252,15 +22252,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:68" ht="128.25">
+    <row r="46" spans="2:68" ht="41.4">
       <c r="B46" s="3">
         <v>43</v>
       </c>
-      <c r="C46" s="61"/>
-      <c r="D46" s="56" t="s">
-        <v>626</v>
-      </c>
-      <c r="E46" s="59">
+      <c r="C46" s="57"/>
+      <c r="D46" s="52" t="s">
+        <v>625</v>
+      </c>
+      <c r="E46" s="54">
         <v>1</v>
       </c>
       <c r="F46" s="4">
@@ -22455,17 +22455,17 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="47" spans="2:68" ht="213.75">
+    <row r="47" spans="2:68" ht="69">
       <c r="B47" s="3">
         <v>44</v>
       </c>
-      <c r="C47" s="62" t="s">
+      <c r="C47" s="56" t="s">
+        <v>626</v>
+      </c>
+      <c r="D47" s="52" t="s">
         <v>627</v>
       </c>
-      <c r="D47" s="56" t="s">
-        <v>628</v>
-      </c>
-      <c r="E47" s="59">
+      <c r="E47" s="54">
         <v>0</v>
       </c>
       <c r="F47" s="4">
@@ -22640,15 +22640,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:68" ht="213.75">
+    <row r="48" spans="2:68" ht="69">
       <c r="B48" s="3">
         <v>45</v>
       </c>
-      <c r="C48" s="61"/>
-      <c r="D48" s="56" t="s">
-        <v>629</v>
-      </c>
-      <c r="E48" s="59">
+      <c r="C48" s="57"/>
+      <c r="D48" s="52" t="s">
+        <v>628</v>
+      </c>
+      <c r="E48" s="54">
         <v>1</v>
       </c>
       <c r="F48" s="4">
@@ -22843,17 +22843,17 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="49" spans="2:68" ht="285">
+    <row r="49" spans="2:68" ht="96.6">
       <c r="B49" s="3">
         <v>46</v>
       </c>
-      <c r="C49" s="62" t="s">
+      <c r="C49" s="56" t="s">
+        <v>629</v>
+      </c>
+      <c r="D49" s="52" t="s">
         <v>630</v>
       </c>
-      <c r="D49" s="56" t="s">
-        <v>631</v>
-      </c>
-      <c r="E49" s="59">
+      <c r="E49" s="54">
         <v>0</v>
       </c>
       <c r="F49" s="4">
@@ -23028,15 +23028,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:68" ht="285">
+    <row r="50" spans="2:68" ht="96.6">
       <c r="B50" s="3">
         <v>47</v>
       </c>
-      <c r="C50" s="60"/>
-      <c r="D50" s="56" t="s">
-        <v>632</v>
-      </c>
-      <c r="E50" s="59">
+      <c r="C50" s="59"/>
+      <c r="D50" s="52" t="s">
+        <v>631</v>
+      </c>
+      <c r="E50" s="54">
         <v>2</v>
       </c>
       <c r="F50" s="4">
@@ -23231,15 +23231,15 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="51" spans="2:68" ht="285">
+    <row r="51" spans="2:68" ht="96.6">
       <c r="B51" s="3">
         <v>48</v>
       </c>
-      <c r="C51" s="60"/>
-      <c r="D51" s="56" t="s">
-        <v>633</v>
-      </c>
-      <c r="E51" s="59">
+      <c r="C51" s="59"/>
+      <c r="D51" s="52" t="s">
+        <v>632</v>
+      </c>
+      <c r="E51" s="54">
         <v>2</v>
       </c>
       <c r="F51" s="4">
@@ -23434,15 +23434,15 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="52" spans="2:68" ht="285">
+    <row r="52" spans="2:68" ht="96.6">
       <c r="B52" s="3">
         <v>49</v>
       </c>
-      <c r="C52" s="61"/>
-      <c r="D52" s="56" t="s">
-        <v>634</v>
-      </c>
-      <c r="E52" s="59">
+      <c r="C52" s="57"/>
+      <c r="D52" s="52" t="s">
+        <v>633</v>
+      </c>
+      <c r="E52" s="54">
         <v>2</v>
       </c>
       <c r="F52" s="4">
@@ -23637,17 +23637,17 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="53" spans="2:68" ht="327.75">
+    <row r="53" spans="2:68" ht="110.4">
       <c r="B53" s="3">
         <v>50</v>
       </c>
-      <c r="C53" s="62" t="s">
-        <v>635</v>
-      </c>
-      <c r="D53" s="56" t="s">
-        <v>588</v>
-      </c>
-      <c r="E53" s="59">
+      <c r="C53" s="56" t="s">
+        <v>634</v>
+      </c>
+      <c r="D53" s="52" t="s">
+        <v>587</v>
+      </c>
+      <c r="E53" s="54">
         <v>0</v>
       </c>
       <c r="F53" s="4">
@@ -23822,15 +23822,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:68" ht="327.75">
+    <row r="54" spans="2:68" ht="110.4">
       <c r="B54" s="3">
         <v>51</v>
       </c>
-      <c r="C54" s="60"/>
-      <c r="D54" s="56" t="s">
-        <v>636</v>
-      </c>
-      <c r="E54" s="59">
+      <c r="C54" s="59"/>
+      <c r="D54" s="52" t="s">
+        <v>635</v>
+      </c>
+      <c r="E54" s="54">
         <v>1</v>
       </c>
       <c r="F54" s="4">
@@ -24025,15 +24025,15 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="55" spans="2:68" ht="327.75">
+    <row r="55" spans="2:68" ht="110.4">
       <c r="B55" s="3">
         <v>52</v>
       </c>
-      <c r="C55" s="60"/>
-      <c r="D55" s="56" t="s">
-        <v>637</v>
-      </c>
-      <c r="E55" s="59">
+      <c r="C55" s="59"/>
+      <c r="D55" s="52" t="s">
+        <v>636</v>
+      </c>
+      <c r="E55" s="54">
         <v>1</v>
       </c>
       <c r="F55" s="4">
@@ -24228,15 +24228,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:68" ht="327.75">
+    <row r="56" spans="2:68" ht="172.8">
       <c r="B56" s="3">
         <v>53</v>
       </c>
-      <c r="C56" s="61"/>
-      <c r="D56" s="56" t="s">
-        <v>638</v>
-      </c>
-      <c r="E56" s="59">
+      <c r="C56" s="57"/>
+      <c r="D56" s="52" t="s">
+        <v>637</v>
+      </c>
+      <c r="E56" s="54">
         <v>2</v>
       </c>
       <c r="F56" s="4">
@@ -24431,17 +24431,17 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="57" spans="2:68" ht="327.75">
+    <row r="57" spans="2:68" ht="110.4">
       <c r="B57" s="3">
         <v>54</v>
       </c>
-      <c r="C57" s="62" t="s">
-        <v>639</v>
-      </c>
-      <c r="D57" s="56" t="s">
-        <v>588</v>
-      </c>
-      <c r="E57" s="59">
+      <c r="C57" s="56" t="s">
+        <v>638</v>
+      </c>
+      <c r="D57" s="52" t="s">
+        <v>587</v>
+      </c>
+      <c r="E57" s="54">
         <v>0</v>
       </c>
       <c r="F57" s="4">
@@ -24616,15 +24616,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:68" ht="327.75">
+    <row r="58" spans="2:68" ht="110.4">
       <c r="B58" s="3">
         <v>55</v>
       </c>
-      <c r="C58" s="60"/>
-      <c r="D58" s="56" t="s">
-        <v>636</v>
-      </c>
-      <c r="E58" s="59">
+      <c r="C58" s="59"/>
+      <c r="D58" s="52" t="s">
+        <v>635</v>
+      </c>
+      <c r="E58" s="54">
         <v>1</v>
       </c>
       <c r="F58" s="4">
@@ -24819,15 +24819,15 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="59" spans="2:68" ht="327.75">
+    <row r="59" spans="2:68" ht="110.4">
       <c r="B59" s="3">
         <v>56</v>
       </c>
-      <c r="C59" s="60"/>
-      <c r="D59" s="56" t="s">
-        <v>637</v>
-      </c>
-      <c r="E59" s="59">
+      <c r="C59" s="59"/>
+      <c r="D59" s="52" t="s">
+        <v>636</v>
+      </c>
+      <c r="E59" s="54">
         <v>1</v>
       </c>
       <c r="F59" s="4">
@@ -25022,15 +25022,15 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="60" spans="2:68" ht="327.75">
+    <row r="60" spans="2:68" ht="172.8">
       <c r="B60" s="3">
         <v>57</v>
       </c>
-      <c r="C60" s="61"/>
-      <c r="D60" s="56" t="s">
-        <v>638</v>
-      </c>
-      <c r="E60" s="59">
+      <c r="C60" s="57"/>
+      <c r="D60" s="52" t="s">
+        <v>637</v>
+      </c>
+      <c r="E60" s="54">
         <v>2</v>
       </c>
       <c r="F60" s="4">
@@ -25225,17 +25225,17 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="61" spans="2:68" ht="327.75">
+    <row r="61" spans="2:68" ht="110.4">
       <c r="B61" s="3">
         <v>58</v>
       </c>
-      <c r="C61" s="62" t="s">
-        <v>640</v>
-      </c>
-      <c r="D61" s="56" t="s">
-        <v>588</v>
-      </c>
-      <c r="E61" s="59">
+      <c r="C61" s="56" t="s">
+        <v>639</v>
+      </c>
+      <c r="D61" s="52" t="s">
+        <v>587</v>
+      </c>
+      <c r="E61" s="54">
         <v>0</v>
       </c>
       <c r="F61" s="4">
@@ -25410,15 +25410,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:68" ht="327.75">
+    <row r="62" spans="2:68" ht="110.4">
       <c r="B62" s="3">
         <v>59</v>
       </c>
-      <c r="C62" s="60"/>
-      <c r="D62" s="56" t="s">
-        <v>636</v>
-      </c>
-      <c r="E62" s="59">
+      <c r="C62" s="59"/>
+      <c r="D62" s="52" t="s">
+        <v>635</v>
+      </c>
+      <c r="E62" s="54">
         <v>1</v>
       </c>
       <c r="F62" s="4">
@@ -25613,15 +25613,15 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="63" spans="2:68" ht="327.75">
+    <row r="63" spans="2:68" ht="110.4">
       <c r="B63" s="3">
         <v>60</v>
       </c>
-      <c r="C63" s="60"/>
-      <c r="D63" s="56" t="s">
-        <v>637</v>
-      </c>
-      <c r="E63" s="59">
+      <c r="C63" s="59"/>
+      <c r="D63" s="52" t="s">
+        <v>636</v>
+      </c>
+      <c r="E63" s="54">
         <v>1</v>
       </c>
       <c r="F63" s="4">
@@ -25816,15 +25816,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:68" ht="327.75">
+    <row r="64" spans="2:68" ht="172.8">
       <c r="B64" s="3">
         <v>61</v>
       </c>
-      <c r="C64" s="61"/>
-      <c r="D64" s="56" t="s">
-        <v>638</v>
-      </c>
-      <c r="E64" s="59">
+      <c r="C64" s="57"/>
+      <c r="D64" s="52" t="s">
+        <v>637</v>
+      </c>
+      <c r="E64" s="54">
         <v>2</v>
       </c>
       <c r="F64" s="4">
@@ -26019,17 +26019,17 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="65" spans="2:68" ht="409.5">
+    <row r="65" spans="2:68" ht="151.80000000000001">
       <c r="B65" s="3">
         <v>62</v>
       </c>
-      <c r="C65" s="62" t="s">
+      <c r="C65" s="56" t="s">
+        <v>640</v>
+      </c>
+      <c r="D65" s="52" t="s">
         <v>641</v>
       </c>
-      <c r="D65" s="56" t="s">
-        <v>642</v>
-      </c>
-      <c r="E65" s="59">
+      <c r="E65" s="54">
         <v>0</v>
       </c>
       <c r="F65" s="4">
@@ -26204,15 +26204,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:68" ht="409.5">
+    <row r="66" spans="2:68" ht="151.80000000000001">
       <c r="B66" s="3">
         <v>63</v>
       </c>
-      <c r="C66" s="60"/>
-      <c r="D66" s="56" t="s">
-        <v>643</v>
-      </c>
-      <c r="E66" s="59">
+      <c r="C66" s="59"/>
+      <c r="D66" s="52" t="s">
+        <v>642</v>
+      </c>
+      <c r="E66" s="54">
         <v>1</v>
       </c>
       <c r="F66" s="4">
@@ -26407,15 +26407,15 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="67" spans="2:68" ht="409.5">
+    <row r="67" spans="2:68" ht="151.80000000000001">
       <c r="B67" s="3">
         <v>64</v>
       </c>
-      <c r="C67" s="60"/>
-      <c r="D67" s="56" t="s">
-        <v>644</v>
-      </c>
-      <c r="E67" s="59">
+      <c r="C67" s="59"/>
+      <c r="D67" s="52" t="s">
+        <v>643</v>
+      </c>
+      <c r="E67" s="54">
         <v>2</v>
       </c>
       <c r="F67" s="4">
@@ -26610,15 +26610,15 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="68" spans="2:68" ht="409.5">
+    <row r="68" spans="2:68" ht="302.39999999999998">
       <c r="B68" s="3">
         <v>65</v>
       </c>
-      <c r="C68" s="61"/>
-      <c r="D68" s="56" t="s">
-        <v>645</v>
-      </c>
-      <c r="E68" s="59">
+      <c r="C68" s="57"/>
+      <c r="D68" s="52" t="s">
+        <v>644</v>
+      </c>
+      <c r="E68" s="54">
         <v>3</v>
       </c>
       <c r="F68" s="4">
@@ -26813,17 +26813,17 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="69" spans="2:68" ht="356.25">
+    <row r="69" spans="2:68" ht="124.2">
       <c r="B69" s="3">
         <v>66</v>
       </c>
-      <c r="C69" s="62" t="s">
+      <c r="C69" s="56" t="s">
+        <v>645</v>
+      </c>
+      <c r="D69" s="52" t="s">
         <v>646</v>
       </c>
-      <c r="D69" s="56" t="s">
-        <v>647</v>
-      </c>
-      <c r="E69" s="59">
+      <c r="E69" s="54">
         <v>0</v>
       </c>
       <c r="F69" s="4">
@@ -26996,15 +26996,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:68" ht="356.25">
+    <row r="70" spans="2:68" ht="124.2">
       <c r="B70" s="3">
         <v>67</v>
       </c>
-      <c r="C70" s="60"/>
-      <c r="D70" s="56" t="s">
-        <v>648</v>
-      </c>
-      <c r="E70" s="59">
+      <c r="C70" s="59"/>
+      <c r="D70" s="52" t="s">
+        <v>647</v>
+      </c>
+      <c r="E70" s="54">
         <v>2</v>
       </c>
       <c r="F70" s="4">
@@ -27199,15 +27199,15 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="71" spans="2:68" ht="356.25">
+    <row r="71" spans="2:68" ht="124.2">
       <c r="B71" s="3">
         <v>68</v>
       </c>
-      <c r="C71" s="60"/>
-      <c r="D71" s="56" t="s">
-        <v>649</v>
-      </c>
-      <c r="E71" s="59">
+      <c r="C71" s="59"/>
+      <c r="D71" s="52" t="s">
+        <v>648</v>
+      </c>
+      <c r="E71" s="54">
         <v>2</v>
       </c>
       <c r="F71" s="4">
@@ -27402,15 +27402,15 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="72" spans="2:68" ht="356.25">
+    <row r="72" spans="2:68" ht="129.6">
       <c r="B72" s="3">
         <v>69</v>
       </c>
-      <c r="C72" s="61"/>
-      <c r="D72" s="56" t="s">
-        <v>650</v>
-      </c>
-      <c r="E72" s="59">
+      <c r="C72" s="57"/>
+      <c r="D72" s="52" t="s">
+        <v>649</v>
+      </c>
+      <c r="E72" s="54">
         <v>3</v>
       </c>
       <c r="F72" s="4">
@@ -27605,17 +27605,17 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="73" spans="2:68" ht="384.75">
+    <row r="73" spans="2:68" ht="138">
       <c r="B73" s="3">
         <v>70</v>
       </c>
-      <c r="C73" s="62" t="s">
+      <c r="C73" s="56" t="s">
+        <v>650</v>
+      </c>
+      <c r="D73" s="52" t="s">
         <v>651</v>
       </c>
-      <c r="D73" s="56" t="s">
-        <v>652</v>
-      </c>
-      <c r="E73" s="59">
+      <c r="E73" s="54">
         <v>0</v>
       </c>
       <c r="F73" s="4">
@@ -27790,15 +27790,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:68" ht="384.75">
+    <row r="74" spans="2:68" ht="302.39999999999998">
       <c r="B74" s="3">
         <v>71</v>
       </c>
-      <c r="C74" s="60"/>
-      <c r="D74" s="56" t="s">
-        <v>653</v>
-      </c>
-      <c r="E74" s="59">
+      <c r="C74" s="59"/>
+      <c r="D74" s="52" t="s">
+        <v>652</v>
+      </c>
+      <c r="E74" s="54">
         <v>3</v>
       </c>
       <c r="F74" s="4">
@@ -27993,15 +27993,15 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="75" spans="2:68" ht="409.5">
+    <row r="75" spans="2:68" ht="409.6">
       <c r="B75" s="3">
         <v>72</v>
       </c>
-      <c r="C75" s="60"/>
-      <c r="D75" s="56" t="s">
-        <v>654</v>
-      </c>
-      <c r="E75" s="59">
+      <c r="C75" s="59"/>
+      <c r="D75" s="52" t="s">
+        <v>653</v>
+      </c>
+      <c r="E75" s="54">
         <v>5</v>
       </c>
       <c r="F75" s="4">
@@ -28196,15 +28196,15 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="76" spans="2:68" ht="409.5">
+    <row r="76" spans="2:68" ht="409.6">
       <c r="B76" s="3">
         <v>73</v>
       </c>
-      <c r="C76" s="60"/>
-      <c r="D76" s="56" t="s">
-        <v>655</v>
-      </c>
-      <c r="E76" s="59">
+      <c r="C76" s="59"/>
+      <c r="D76" s="52" t="s">
+        <v>654</v>
+      </c>
+      <c r="E76" s="54">
         <v>5</v>
       </c>
       <c r="F76" s="4">
@@ -28399,15 +28399,15 @@
         <v>0.35307017543859615</v>
       </c>
     </row>
-    <row r="77" spans="2:68" ht="384.75">
+    <row r="77" spans="2:68" ht="138">
       <c r="B77" s="3">
         <v>74</v>
       </c>
-      <c r="C77" s="60"/>
-      <c r="D77" s="56" t="s">
-        <v>656</v>
-      </c>
-      <c r="E77" s="59">
+      <c r="C77" s="59"/>
+      <c r="D77" s="52" t="s">
+        <v>655</v>
+      </c>
+      <c r="E77" s="54">
         <v>2</v>
       </c>
       <c r="F77" s="4">
@@ -28602,15 +28602,15 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="78" spans="2:68" ht="384.75">
+    <row r="78" spans="2:68" ht="138">
       <c r="B78" s="3">
         <v>75</v>
       </c>
-      <c r="C78" s="60"/>
-      <c r="D78" s="56" t="s">
-        <v>657</v>
-      </c>
-      <c r="E78" s="59">
+      <c r="C78" s="59"/>
+      <c r="D78" s="52" t="s">
+        <v>656</v>
+      </c>
+      <c r="E78" s="54">
         <v>2</v>
       </c>
       <c r="F78" s="4">
@@ -28805,15 +28805,15 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="79" spans="2:68" ht="384.75">
+    <row r="79" spans="2:68" ht="302.39999999999998">
       <c r="B79" s="3">
         <v>76</v>
       </c>
-      <c r="C79" s="60"/>
-      <c r="D79" s="56" t="s">
-        <v>658</v>
-      </c>
-      <c r="E79" s="59">
+      <c r="C79" s="59"/>
+      <c r="D79" s="52" t="s">
+        <v>657</v>
+      </c>
+      <c r="E79" s="54">
         <v>3</v>
       </c>
       <c r="F79" s="4">
@@ -29008,15 +29008,15 @@
         <v>0.86904761904761907</v>
       </c>
     </row>
-    <row r="80" spans="2:68" ht="409.5">
+    <row r="80" spans="2:68" ht="409.6">
       <c r="B80" s="3">
         <v>77</v>
       </c>
-      <c r="C80" s="61"/>
-      <c r="D80" s="56" t="s">
-        <v>659</v>
-      </c>
-      <c r="E80" s="59">
+      <c r="C80" s="57"/>
+      <c r="D80" s="52" t="s">
+        <v>658</v>
+      </c>
+      <c r="E80" s="54">
         <v>5</v>
       </c>
       <c r="F80" s="4">
@@ -29211,17 +29211,17 @@
         <v>0.53055555555555534</v>
       </c>
     </row>
-    <row r="81" spans="2:68" ht="409.5">
+    <row r="81" spans="2:68" ht="234.6">
       <c r="B81" s="3">
         <v>78</v>
       </c>
-      <c r="C81" s="62" t="s">
+      <c r="C81" s="56" t="s">
+        <v>659</v>
+      </c>
+      <c r="D81" s="52" t="s">
         <v>660</v>
       </c>
-      <c r="D81" s="56" t="s">
-        <v>661</v>
-      </c>
-      <c r="E81" s="59">
+      <c r="E81" s="54">
         <v>0</v>
       </c>
       <c r="F81" s="4">
@@ -29398,15 +29398,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:68" ht="409.5">
+    <row r="82" spans="2:68" ht="234.6">
       <c r="B82" s="3">
         <v>79</v>
       </c>
-      <c r="C82" s="60"/>
-      <c r="D82" s="56" t="s">
-        <v>662</v>
-      </c>
-      <c r="E82" s="59">
+      <c r="C82" s="59"/>
+      <c r="D82" s="52" t="s">
+        <v>661</v>
+      </c>
+      <c r="E82" s="54">
         <v>1</v>
       </c>
       <c r="F82" s="4">
@@ -29601,15 +29601,15 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="83" spans="2:68" ht="409.5">
+    <row r="83" spans="2:68" ht="409.6">
       <c r="B83" s="3">
         <v>80</v>
       </c>
-      <c r="C83" s="60"/>
-      <c r="D83" s="56" t="s">
-        <v>663</v>
-      </c>
-      <c r="E83" s="59">
+      <c r="C83" s="59"/>
+      <c r="D83" s="52" t="s">
+        <v>662</v>
+      </c>
+      <c r="E83" s="54">
         <v>5</v>
       </c>
       <c r="F83" s="4">
@@ -29804,15 +29804,15 @@
         <v>0.14030612244897958</v>
       </c>
     </row>
-    <row r="84" spans="2:68" ht="409.5">
+    <row r="84" spans="2:68" ht="409.6">
       <c r="B84" s="3">
         <v>81</v>
       </c>
-      <c r="C84" s="60"/>
-      <c r="D84" s="56" t="s">
-        <v>664</v>
-      </c>
-      <c r="E84" s="59">
+      <c r="C84" s="59"/>
+      <c r="D84" s="52" t="s">
+        <v>663</v>
+      </c>
+      <c r="E84" s="54">
         <v>3</v>
       </c>
       <c r="F84" s="4">
@@ -30007,15 +30007,15 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="85" spans="2:68" ht="409.5">
+    <row r="85" spans="2:68" ht="409.6">
       <c r="B85" s="3">
         <v>82</v>
       </c>
-      <c r="C85" s="60"/>
-      <c r="D85" s="56" t="s">
-        <v>665</v>
-      </c>
-      <c r="E85" s="59">
+      <c r="C85" s="59"/>
+      <c r="D85" s="52" t="s">
+        <v>664</v>
+      </c>
+      <c r="E85" s="54">
         <v>5</v>
       </c>
       <c r="F85" s="4">
@@ -30210,15 +30210,15 @@
         <v>0.32142857142857112</v>
       </c>
     </row>
-    <row r="86" spans="2:68" ht="409.5">
+    <row r="86" spans="2:68" ht="234.6">
       <c r="B86" s="3">
         <v>83</v>
       </c>
-      <c r="C86" s="60"/>
-      <c r="D86" s="56" t="s">
-        <v>666</v>
-      </c>
-      <c r="E86" s="59">
+      <c r="C86" s="59"/>
+      <c r="D86" s="52" t="s">
+        <v>665</v>
+      </c>
+      <c r="E86" s="54">
         <v>4</v>
       </c>
       <c r="F86" s="4">
@@ -30413,15 +30413,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="87" spans="2:68" ht="409.5">
+    <row r="87" spans="2:68" ht="234.6">
       <c r="B87" s="3">
         <v>84</v>
       </c>
-      <c r="C87" s="60"/>
-      <c r="D87" s="56" t="s">
-        <v>667</v>
-      </c>
-      <c r="E87" s="59">
+      <c r="C87" s="59"/>
+      <c r="D87" s="52" t="s">
+        <v>666</v>
+      </c>
+      <c r="E87" s="54">
         <v>1</v>
       </c>
       <c r="F87" s="4">
@@ -30616,15 +30616,15 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="88" spans="2:68" ht="409.5">
+    <row r="88" spans="2:68" ht="409.6">
       <c r="B88" s="3">
         <v>85</v>
       </c>
-      <c r="C88" s="61"/>
-      <c r="D88" s="56" t="s">
-        <v>668</v>
-      </c>
-      <c r="E88" s="59">
+      <c r="C88" s="57"/>
+      <c r="D88" s="52" t="s">
+        <v>667</v>
+      </c>
+      <c r="E88" s="54">
         <v>5</v>
       </c>
       <c r="F88" s="4">
@@ -30819,17 +30819,17 @@
         <v>3.1862745098039109E-2</v>
       </c>
     </row>
-    <row r="89" spans="2:68" ht="356.25">
+    <row r="89" spans="2:68" ht="124.2">
       <c r="B89" s="3">
         <v>86</v>
       </c>
-      <c r="C89" s="62" t="s">
+      <c r="C89" s="56" t="s">
+        <v>668</v>
+      </c>
+      <c r="D89" s="52" t="s">
         <v>669</v>
       </c>
-      <c r="D89" s="56" t="s">
-        <v>670</v>
-      </c>
-      <c r="E89" s="59">
+      <c r="E89" s="54">
         <v>0</v>
       </c>
       <c r="F89" s="4">
@@ -31012,15 +31012,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:68" ht="356.25">
+    <row r="90" spans="2:68" ht="124.2">
       <c r="B90" s="3">
         <v>87</v>
       </c>
-      <c r="C90" s="60"/>
-      <c r="D90" s="56" t="s">
-        <v>671</v>
-      </c>
-      <c r="E90" s="59">
+      <c r="C90" s="59"/>
+      <c r="D90" s="52" t="s">
+        <v>670</v>
+      </c>
+      <c r="E90" s="54">
         <v>2</v>
       </c>
       <c r="F90" s="4">
@@ -31215,15 +31215,15 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="91" spans="2:68" ht="356.25">
+    <row r="91" spans="2:68" ht="124.2">
       <c r="B91" s="3">
         <v>88</v>
       </c>
-      <c r="C91" s="60"/>
-      <c r="D91" s="56" t="s">
-        <v>604</v>
-      </c>
-      <c r="E91" s="59">
+      <c r="C91" s="59"/>
+      <c r="D91" s="52" t="s">
+        <v>603</v>
+      </c>
+      <c r="E91" s="54">
         <v>2</v>
       </c>
       <c r="F91" s="4">
@@ -31418,15 +31418,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="92" spans="2:68" ht="356.25">
+    <row r="92" spans="2:68" ht="124.2">
       <c r="B92" s="3">
         <v>89</v>
       </c>
-      <c r="C92" s="61"/>
-      <c r="D92" s="56" t="s">
-        <v>605</v>
-      </c>
-      <c r="E92" s="59">
+      <c r="C92" s="57"/>
+      <c r="D92" s="52" t="s">
+        <v>604</v>
+      </c>
+      <c r="E92" s="54">
         <v>3</v>
       </c>
       <c r="F92" s="4">
@@ -31621,17 +31621,17 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="93" spans="2:68" ht="356.25">
+    <row r="93" spans="2:68" ht="124.2">
       <c r="B93" s="3">
         <v>90</v>
       </c>
-      <c r="C93" s="62" t="s">
-        <v>672</v>
-      </c>
-      <c r="D93" s="56" t="s">
-        <v>647</v>
-      </c>
-      <c r="E93" s="59">
+      <c r="C93" s="56" t="s">
+        <v>671</v>
+      </c>
+      <c r="D93" s="52" t="s">
+        <v>646</v>
+      </c>
+      <c r="E93" s="54">
         <v>0</v>
       </c>
       <c r="F93" s="4">
@@ -31808,15 +31808,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:68" ht="356.25">
+    <row r="94" spans="2:68" ht="124.2">
       <c r="B94" s="3">
         <v>91</v>
       </c>
-      <c r="C94" s="60"/>
-      <c r="D94" s="56" t="s">
-        <v>649</v>
-      </c>
-      <c r="E94" s="59">
+      <c r="C94" s="59"/>
+      <c r="D94" s="52" t="s">
+        <v>648</v>
+      </c>
+      <c r="E94" s="54">
         <v>2</v>
       </c>
       <c r="F94" s="4">
@@ -32011,15 +32011,15 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="95" spans="2:68" ht="356.25">
+    <row r="95" spans="2:68" ht="124.2">
       <c r="B95" s="3">
         <v>92</v>
       </c>
-      <c r="C95" s="60"/>
-      <c r="D95" s="56" t="s">
-        <v>648</v>
-      </c>
-      <c r="E95" s="59">
+      <c r="C95" s="59"/>
+      <c r="D95" s="52" t="s">
+        <v>647</v>
+      </c>
+      <c r="E95" s="54">
         <v>1</v>
       </c>
       <c r="F95" s="4">
@@ -32214,15 +32214,15 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="96" spans="2:68" ht="356.25">
+    <row r="96" spans="2:68" ht="124.2">
       <c r="B96" s="3">
         <v>93</v>
       </c>
-      <c r="C96" s="61"/>
-      <c r="D96" s="56" t="s">
-        <v>650</v>
-      </c>
-      <c r="E96" s="59">
+      <c r="C96" s="57"/>
+      <c r="D96" s="52" t="s">
+        <v>649</v>
+      </c>
+      <c r="E96" s="54">
         <v>3</v>
       </c>
       <c r="F96" s="4">
@@ -32417,17 +32417,17 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="97" spans="2:68" ht="213.75">
+    <row r="97" spans="2:68" ht="69">
       <c r="B97" s="3">
         <v>94</v>
       </c>
-      <c r="C97" s="62" t="s">
-        <v>673</v>
-      </c>
-      <c r="D97" s="56" t="s">
-        <v>628</v>
-      </c>
-      <c r="E97" s="59">
+      <c r="C97" s="56" t="s">
+        <v>672</v>
+      </c>
+      <c r="D97" s="52" t="s">
+        <v>627</v>
+      </c>
+      <c r="E97" s="54">
         <v>0</v>
       </c>
       <c r="F97" s="4">
@@ -32612,15 +32612,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="2:68" ht="213.75">
+    <row r="98" spans="2:68" ht="69">
       <c r="B98" s="3">
         <v>95</v>
       </c>
-      <c r="C98" s="61"/>
-      <c r="D98" s="56" t="s">
-        <v>629</v>
-      </c>
-      <c r="E98" s="59">
+      <c r="C98" s="57"/>
+      <c r="D98" s="52" t="s">
+        <v>628</v>
+      </c>
+      <c r="E98" s="54">
         <v>1</v>
       </c>
       <c r="F98" s="9">
@@ -32815,17 +32815,17 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="99" spans="2:68" ht="128.25">
+    <row r="99" spans="2:68" ht="41.4">
       <c r="B99" s="3">
         <v>96</v>
       </c>
-      <c r="C99" s="62" t="s">
+      <c r="C99" s="56" t="s">
+        <v>673</v>
+      </c>
+      <c r="D99" s="52" t="s">
         <v>674</v>
       </c>
-      <c r="D99" s="56" t="s">
-        <v>675</v>
-      </c>
-      <c r="E99" s="59">
+      <c r="E99" s="54">
         <f t="shared" ref="E99:E102" si="6">IF(F99="", 0, LEN(F99) - LEN(SUBSTITUTE(F99, CHAR(10), "")) + 1)</f>
         <v>1</v>
       </c>
@@ -33005,15 +33005,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="2:68" ht="128.25">
+    <row r="100" spans="2:68" ht="41.4">
       <c r="B100" s="3">
         <v>97</v>
       </c>
-      <c r="C100" s="61"/>
-      <c r="D100" s="56" t="s">
-        <v>625</v>
-      </c>
-      <c r="E100" s="59">
+      <c r="C100" s="57"/>
+      <c r="D100" s="52" t="s">
+        <v>624</v>
+      </c>
+      <c r="E100" s="54">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -33209,17 +33209,17 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="101" spans="2:68" ht="213.75">
+    <row r="101" spans="2:68" ht="69">
       <c r="B101" s="3">
         <v>98</v>
       </c>
-      <c r="C101" s="62" t="s">
+      <c r="C101" s="56" t="s">
+        <v>675</v>
+      </c>
+      <c r="D101" s="52" t="s">
         <v>676</v>
       </c>
-      <c r="D101" s="56" t="s">
-        <v>677</v>
-      </c>
-      <c r="E101" s="59">
+      <c r="E101" s="54">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -33401,15 +33401,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="2:68" ht="214.5" thickBot="1">
+    <row r="102" spans="2:68" ht="69.599999999999994" thickBot="1">
       <c r="B102" s="6">
         <v>99</v>
       </c>
-      <c r="C102" s="63"/>
-      <c r="D102" s="57" t="s">
-        <v>678</v>
-      </c>
-      <c r="E102" s="64">
+      <c r="C102" s="58"/>
+      <c r="D102" s="53" t="s">
+        <v>677</v>
+      </c>
+      <c r="E102" s="55">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -33605,7 +33605,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="103" spans="2:68" ht="15" thickBot="1">
+    <row r="103" spans="2:68" ht="14.4" thickBot="1">
       <c r="BO103" s="19" t="s">
         <v>124</v>
       </c>
@@ -33616,6 +33616,32 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="BJ2:BO2"/>
+    <mergeCell ref="AF2:AK2"/>
+    <mergeCell ref="AL2:AQ2"/>
+    <mergeCell ref="AR2:AW2"/>
+    <mergeCell ref="AX2:BC2"/>
+    <mergeCell ref="BD2:BI2"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="T2:Y2"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="C29:C36"/>
+    <mergeCell ref="C37:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="C65:C68"/>
     <mergeCell ref="C97:C98"/>
     <mergeCell ref="C99:C100"/>
     <mergeCell ref="C101:C102"/>
@@ -33624,32 +33650,6 @@
     <mergeCell ref="C81:C88"/>
     <mergeCell ref="C89:C92"/>
     <mergeCell ref="C93:C96"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="C29:C36"/>
-    <mergeCell ref="C37:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="T2:Y2"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="BJ2:BO2"/>
-    <mergeCell ref="AF2:AK2"/>
-    <mergeCell ref="AL2:AQ2"/>
-    <mergeCell ref="AR2:AW2"/>
-    <mergeCell ref="AX2:BC2"/>
-    <mergeCell ref="BD2:BI2"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="L1:L1048576 X2 AJ2 AV2 BH2">
@@ -33801,23 +33801,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="58f62c55-904c-45ab-921a-aadd23c9ae33" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B77A9B715F068E49A7B077E32E57243A" ma:contentTypeVersion="16" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="424250edbcafd2ec72cecbf25ff02326">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="58f62c55-904c-45ab-921a-aadd23c9ae33" xmlns:ns4="f146318e-9396-49ea-b06c-cd0efdf32951" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1fd45a25e0757d7ed25a597d0b5f65b8" ns3:_="" ns4:_="">
     <xsd:import namespace="58f62c55-904c-45ab-921a-aadd23c9ae33"/>
@@ -34058,32 +34041,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB0BEC68-A8D2-41C9-8F24-363FE6B4FCA4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="f146318e-9396-49ea-b06c-cd0efdf32951"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="58f62c55-904c-45ab-921a-aadd23c9ae33"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDD6D5E5-ECB9-438E-99E0-1D766706DDC6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="58f62c55-904c-45ab-921a-aadd23c9ae33" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D9FEB30-A332-41A1-8C33-F66ECE458AA4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -34100,4 +34075,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDD6D5E5-ECB9-438E-99E0-1D766706DDC6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB0BEC68-A8D2-41C9-8F24-363FE6B4FCA4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="f146318e-9396-49ea-b06c-cd0efdf32951"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="58f62c55-904c-45ab-921a-aadd23c9ae33"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>